--- a/Input/Master vaccine.xlsx
+++ b/Input/Master vaccine.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturo\Documents\cose attive asus\response vaccine\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturo\Documents\cose attive asus\vaccine\vaccine\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1F949A-6C05-4F70-99A2-DFDD4C78BFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012D9336-AA3F-43E6-A0F6-9E16F7710E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original data" sheetId="1" r:id="rId1"/>
-    <sheet name="W3_complete" sheetId="2" r:id="rId2"/>
-    <sheet name="W3_no cons" sheetId="3" r:id="rId3"/>
+    <sheet name="W3_new" sheetId="3" r:id="rId2"/>
+    <sheet name="W3 new core" sheetId="4" r:id="rId3"/>
+    <sheet name="W3_old" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="202">
   <si>
     <t>number</t>
   </si>
@@ -87,9 +88,6 @@
     <t>compliance</t>
   </si>
   <si>
-    <t>Potential controls:</t>
-  </si>
-  <si>
     <t>c1</t>
   </si>
   <si>
@@ -102,30 +100,9 @@
     <t>approval</t>
   </si>
   <si>
-    <t>Per  sconfiggere la diffusione del Coronavirus, quanto è disposto a limitare le sue seguenti libertà personali?</t>
-  </si>
-  <si>
-    <t>w2r_mov</t>
-  </si>
-  <si>
-    <t>d4_01</t>
-  </si>
-  <si>
-    <t>d4_02</t>
-  </si>
-  <si>
     <t>restrict</t>
   </si>
   <si>
-    <t>w2r_asso</t>
-  </si>
-  <si>
-    <t>Willingness to restrict movement</t>
-  </si>
-  <si>
-    <t>Willingness to restrict associations</t>
-  </si>
-  <si>
     <t>Compliance: mask</t>
   </si>
   <si>
@@ -219,9 +196,6 @@
     <t>tr_science</t>
   </si>
   <si>
-    <t>Turst in science</t>
-  </si>
-  <si>
     <t>h1_01</t>
   </si>
   <si>
@@ -264,9 +238,6 @@
     <t>k1</t>
   </si>
   <si>
-    <t xml:space="preserve">1 4 </t>
-  </si>
-  <si>
     <t>Parliamo ora di politica. In generale, quanto si interessa di politica?</t>
   </si>
   <si>
@@ -501,42 +472,12 @@
     <t>Trust in science</t>
   </si>
   <si>
-    <t>Health</t>
-  </si>
-  <si>
     <t>g2</t>
   </si>
   <si>
     <t xml:space="preserve"> Attualmente, come è in  generale la sua salute? La definirebbe. ..</t>
   </si>
   <si>
-    <t>Nervous</t>
-  </si>
-  <si>
-    <t>Depression</t>
-  </si>
-  <si>
-    <t>difficulties for covid</t>
-  </si>
-  <si>
-    <t>nerv</t>
-  </si>
-  <si>
-    <t>depre</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>g6_01</t>
-  </si>
-  <si>
-    <t>g6_02</t>
-  </si>
-  <si>
-    <t>g6_05</t>
-  </si>
-  <si>
     <t>ottima</t>
   </si>
   <si>
@@ -553,13 +494,163 @@
   </si>
   <si>
     <t>COVID-19 related health difficulties</t>
+  </si>
+  <si>
+    <t>rural region</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>trust in health syst</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>pray</t>
+  </si>
+  <si>
+    <t>g7</t>
+  </si>
+  <si>
+    <t>L R</t>
+  </si>
+  <si>
+    <t>vote no vote</t>
+  </si>
+  <si>
+    <t>k5/k4</t>
+  </si>
+  <si>
+    <t>naturopaty</t>
+  </si>
+  <si>
+    <t>h1_04</t>
+  </si>
+  <si>
+    <t>health locus of control</t>
+  </si>
+  <si>
+    <t>j4bis_b</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>tr_h</t>
+  </si>
+  <si>
+    <t>risk perception</t>
+  </si>
+  <si>
+    <t>religion, pray</t>
+  </si>
+  <si>
+    <t>att</t>
+  </si>
+  <si>
+    <t>att_on</t>
+  </si>
+  <si>
+    <t>nat</t>
+  </si>
+  <si>
+    <t>h_locus</t>
+  </si>
+  <si>
+    <t>vaccine related</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trust in science</t>
+  </si>
+  <si>
+    <t>tr_sci</t>
+  </si>
+  <si>
+    <t>indiv/group</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>cathegory</t>
+  </si>
+  <si>
+    <t>Vaccine hesitancy</t>
+  </si>
+  <si>
+    <t>E lei personalmente ritiene di essere più o meno esposto al contagio della maggioranza della popolazione della sua zona?</t>
+  </si>
+  <si>
+    <t>Bisognerebbe dare più spazio ai metodi di cura naturali</t>
+  </si>
+  <si>
+    <t>Secondo lei quanto gli italiani con i propri comportamenti sono responsabili dellìandamento della pandemia?</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>Cosa pensa dello stato del sistema sanitario oggi nella sua regione?</t>
+  </si>
+  <si>
+    <t>Nell'ultima settimana, con quale frequenza ha pregato?</t>
+  </si>
+  <si>
+    <t>Principalmente, lei da dove riceve più informazioni sulla crisi del Coronavirus?</t>
+  </si>
+  <si>
+    <t>Ampiezza centro</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>educated</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>DEP V</t>
+  </si>
+  <si>
+    <t>stratify for</t>
+  </si>
+  <si>
+    <t>Approval og Government</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,8 +678,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,12 +725,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -649,6 +741,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -662,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -674,7 +778,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,9 +1077,10 @@
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -990,743 +1102,792 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A29" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>157</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" t="s">
+        <v>176</v>
+      </c>
+      <c r="T8" t="s">
+        <v>177</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN8" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <f>A4+1</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M5" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <f t="shared" ref="A6:A25" si="0">A5+1</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L6" t="s">
-        <v>119</v>
-      </c>
-      <c r="M6" t="s">
-        <v>120</v>
-      </c>
-      <c r="N6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>48</v>
+      <c r="H29" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1737,11 +1898,1368 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971D6BE-1FA4-4AD9-A75A-06A875610ECD}">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="A1:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f t="shared" ref="A3:A25" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="9"/>
+      <c r="I25" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A5E036-DAA4-4CD8-A00B-710626551976}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <f t="shared" ref="A4:A20" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F230AA-3042-46B6-B6A6-72BF49F1E687}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,7 +3284,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -1775,7 +3293,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1783,25 +3301,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1810,136 +3328,136 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <f t="shared" ref="A4:A26" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Q6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1948,25 +3466,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1975,52 +3493,52 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2029,79 +3547,79 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2110,52 +3628,52 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
         <v>82</v>
       </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>92</v>
-      </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" t="s">
-        <v>93</v>
-      </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2164,25 +3682,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2191,25 +3709,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2218,22 +3736,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2242,22 +3760,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2266,64 +3784,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H21" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2332,19 +3850,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2353,19 +3871,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2374,19 +3892,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2395,60 +3913,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971D6BE-1FA4-4AD9-A75A-06A875610ECD}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Master vaccine.xlsx
+++ b/Input/Master vaccine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturo\Documents\cose attive asus\vaccine\vaccine\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012D9336-AA3F-43E6-A0F6-9E16F7710E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CF9A81-877A-4D11-86F0-37F48A003FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original data" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -781,9 +781,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1901,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971D6BE-1FA4-4AD9-A75A-06A875610ECD}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="A1:I25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,7 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A5E036-DAA4-4CD8-A00B-710626551976}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2663,208 +2660,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <f t="shared" ref="A4:A20" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" t="s">
         <v>181</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" t="s">
         <v>181</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2873,58 +2869,58 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="15" t="s">
+      <c r="G8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="G9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2933,318 +2929,313 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="G10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="G11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="15" t="s">
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="G13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="G14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" t="s">
         <v>195</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
+      <c r="G15" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
+      <c r="G16" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16" t="s">
+      <c r="G17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="16" t="s">
+      <c r="G18" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15" t="s">
+      <c r="E20" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" t="s">
         <v>198</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="3" t="s">
         <v>141</v>
       </c>
     </row>

--- a/Input/Master vaccine.xlsx
+++ b/Input/Master vaccine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturo\Documents\cose attive asus\vaccine\vaccine\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturo\github\vaccine\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CF9A81-877A-4D11-86F0-37F48A003FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8D4873-6400-49EA-9EC9-3EAD1D3CF7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="202">
   <si>
     <t>number</t>
   </si>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971D6BE-1FA4-4AD9-A75A-06A875610ECD}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,15 +2648,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A5E036-DAA4-4CD8-A00B-710626551976}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3128,7 +3129,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3155,7 +3156,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3185,7 +3186,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3215,7 +3216,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3238,6 +3239,64 @@
       <c r="I20" s="3" t="s">
         <v>141</v>
       </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/Master vaccine.xlsx
+++ b/Input/Master vaccine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturo\Documents\cose attive asus\vaccine\vaccine\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturo\Google Drive Streaming\My Drive\PhD\lavoro\lavori in corso\papers\vaccine\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDC54D8-F2FA-45F5-B691-AAC2AF21DE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184075B3-6825-44E7-9BF9-F1D5981CF27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="204">
   <si>
     <t>number</t>
   </si>
@@ -346,15 +346,9 @@
     <t>comp</t>
   </si>
   <si>
-    <t>gov</t>
-  </si>
-  <si>
     <t>inst_tr</t>
   </si>
   <si>
-    <t>Compliance to preventive behaviors</t>
-  </si>
-  <si>
     <t>Institutional trust</t>
   </si>
   <si>
@@ -466,9 +460,6 @@
     <t>cathegory</t>
   </si>
   <si>
-    <t>Vaccine hesitancy</t>
-  </si>
-  <si>
     <t>E lei personalmente ritiene di essere più o meno esposto al contagio della maggioranza della popolazione della sua zona?</t>
   </si>
   <si>
@@ -514,13 +505,148 @@
     <t>stratify for</t>
   </si>
   <si>
-    <t>Approval og Government</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
     <t>individual/group</t>
+  </si>
+  <si>
+    <t>vac_bad,</t>
+  </si>
+  <si>
+    <t>vac_ob,</t>
+  </si>
+  <si>
+    <t>worry,</t>
+  </si>
+  <si>
+    <t>risk,</t>
+  </si>
+  <si>
+    <t>conspiracy,</t>
+  </si>
+  <si>
+    <t>nat,</t>
+  </si>
+  <si>
+    <t>h_locus,</t>
+  </si>
+  <si>
+    <t>he_eco,</t>
+  </si>
+  <si>
+    <t>PTV_L,</t>
+  </si>
+  <si>
+    <t>PTV_5SM,</t>
+  </si>
+  <si>
+    <t>PTV_BOI,</t>
+  </si>
+  <si>
+    <t>tr_sci,</t>
+  </si>
+  <si>
+    <t>tr_h,</t>
+  </si>
+  <si>
+    <t>pray,</t>
+  </si>
+  <si>
+    <t>media,</t>
+  </si>
+  <si>
+    <t>sex,</t>
+  </si>
+  <si>
+    <t>age,</t>
+  </si>
+  <si>
+    <t>educ,</t>
+  </si>
+  <si>
+    <t>reg,</t>
+  </si>
+  <si>
+    <t>eco_insec,</t>
+  </si>
+  <si>
+    <t>hesitancy,</t>
+  </si>
+  <si>
+    <t>comp,</t>
+  </si>
+  <si>
+    <t>gov,</t>
+  </si>
+  <si>
+    <t>Vaccine bad for health,</t>
+  </si>
+  <si>
+    <t>Vaccination obligation,</t>
+  </si>
+  <si>
+    <t>Worry about infection,</t>
+  </si>
+  <si>
+    <t>Risk perception,</t>
+  </si>
+  <si>
+    <t>Public health vs economy,</t>
+  </si>
+  <si>
+    <t>Propensity to vote for L,</t>
+  </si>
+  <si>
+    <t>Propensity to vote for 5SM,</t>
+  </si>
+  <si>
+    <t>Propensity to vote for BOI,</t>
+  </si>
+  <si>
+    <t>Trust in science,</t>
+  </si>
+  <si>
+    <t>Trust in health syst,</t>
+  </si>
+  <si>
+    <t>Religion, pray,</t>
+  </si>
+  <si>
+    <t>Sex,</t>
+  </si>
+  <si>
+    <t>Age,</t>
+  </si>
+  <si>
+    <t>Education,</t>
+  </si>
+  <si>
+    <t>Rural region,</t>
+  </si>
+  <si>
+    <t>Economic insecurity,</t>
+  </si>
+  <si>
+    <t>Vaccine hesitancy,</t>
+  </si>
+  <si>
+    <t>Compliance to preventive behaviors,</t>
+  </si>
+  <si>
+    <t>Approval of Government,</t>
+  </si>
+  <si>
+    <t>Endorsing conspiracy theories,</t>
+  </si>
+  <si>
+    <t>Trust in alternative medicine,</t>
+  </si>
+  <si>
+    <t>Internal health locus of control,</t>
+  </si>
+  <si>
+    <t>Digital media diet,</t>
   </si>
 </sst>
 </file>
@@ -563,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +750,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -637,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -653,6 +785,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,7 +1103,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
@@ -996,7 +1129,7 @@
         <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -1024,7 +1157,7 @@
         <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
@@ -1051,7 +1184,7 @@
         <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
@@ -1078,7 +1211,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
@@ -1105,7 +1238,7 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
@@ -1114,19 +1247,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
@@ -1151,7 +1284,7 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L8" t="s">
         <v>71</v>
@@ -1169,16 +1302,16 @@
         <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>12</v>
@@ -1211,22 +1344,22 @@
         <v>35</v>
       </c>
       <c r="AE8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AH8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AI8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AJ8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AK8" t="s">
         <v>83</v>
@@ -1238,7 +1371,7 @@
         <v>91</v>
       </c>
       <c r="AN8" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AO8" t="s">
         <v>38</v>
@@ -1250,19 +1383,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
@@ -1271,19 +1404,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
@@ -1310,7 +1443,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
@@ -1337,7 +1470,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
@@ -1364,7 +1497,7 @@
         <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
@@ -1391,7 +1524,7 @@
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
@@ -1418,7 +1551,7 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
@@ -1445,7 +1578,7 @@
         <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1472,7 +1605,7 @@
         <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1499,7 +1632,7 @@
         <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1526,7 +1659,7 @@
         <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1553,7 +1686,7 @@
         <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1562,10 +1695,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -1580,7 +1713,7 @@
         <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1589,19 +1722,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1610,19 +1743,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1631,19 +1764,19 @@
         <v>#REF!</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1664,7 +1797,7 @@
         <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1685,7 +1818,7 @@
         <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1706,7 +1839,7 @@
         <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1715,19 +1848,19 @@
         <v>#REF!</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1754,7 +1887,7 @@
         <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1902,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,628 +1932,628 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="13">
         <f t="shared" ref="A3:A25" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>69</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>101</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="D5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="I5" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="B14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="B15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H15" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="G16" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="F17" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" t="s">
         <v>89</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="E20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="F20" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="B21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="E22" t="s">
         <v>101</v>
@@ -2429,16 +2562,16 @@
         <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R22" s="8" t="s">
         <v>57</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -2446,83 +2579,80 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>156</v>
+      <c r="B23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" t="s">
+        <v>153</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S23" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>156</v>
+      <c r="B24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" t="s">
+        <v>153</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>156</v>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" t="s">
+        <v>153</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Master vaccine.xlsx
+++ b/Input/Master vaccine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturo\Google Drive Streaming\My Drive\PhD\lavoro\lavori in corso\papers\vaccine\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/art/Documents/Github/lavori in corso/papers/vaccine/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184075B3-6825-44E7-9BF9-F1D5981CF27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFACCF8-52DA-2F4D-AAC2-B48F82746259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28700" yWindow="500" windowWidth="10000" windowHeight="19980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="193">
   <si>
     <t>number</t>
   </si>
@@ -343,21 +343,6 @@
     <t>0 1</t>
   </si>
   <si>
-    <t>comp</t>
-  </si>
-  <si>
-    <t>inst_tr</t>
-  </si>
-  <si>
-    <t>Institutional trust</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
@@ -469,12 +454,6 @@
     <t>Secondo lei quanto gli italiani con i propri comportamenti sono responsabili dellìandamento della pandemia?</t>
   </si>
   <si>
-    <t>rural</t>
-  </si>
-  <si>
-    <t>Cosa pensa dello stato del sistema sanitario oggi nella sua regione?</t>
-  </si>
-  <si>
     <t>Nell'ultima settimana, con quale frequenza ha pregato?</t>
   </si>
   <si>
@@ -484,18 +463,6 @@
     <t>Ampiezza centro</t>
   </si>
   <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>internal</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>educated</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
@@ -514,27 +481,12 @@
     <t>vac_bad,</t>
   </si>
   <si>
-    <t>vac_ob,</t>
-  </si>
-  <si>
-    <t>worry,</t>
-  </si>
-  <si>
-    <t>risk,</t>
-  </si>
-  <si>
     <t>conspiracy,</t>
   </si>
   <si>
     <t>nat,</t>
   </si>
   <si>
-    <t>h_locus,</t>
-  </si>
-  <si>
-    <t>he_eco,</t>
-  </si>
-  <si>
     <t>PTV_L,</t>
   </si>
   <si>
@@ -544,57 +496,21 @@
     <t>PTV_BOI,</t>
   </si>
   <si>
-    <t>tr_sci,</t>
-  </si>
-  <si>
-    <t>tr_h,</t>
-  </si>
-  <si>
     <t>pray,</t>
   </si>
   <si>
     <t>media,</t>
   </si>
   <si>
-    <t>sex,</t>
-  </si>
-  <si>
-    <t>age,</t>
-  </si>
-  <si>
-    <t>educ,</t>
-  </si>
-  <si>
-    <t>reg,</t>
-  </si>
-  <si>
     <t>eco_insec,</t>
   </si>
   <si>
     <t>hesitancy,</t>
   </si>
   <si>
-    <t>comp,</t>
-  </si>
-  <si>
-    <t>gov,</t>
-  </si>
-  <si>
     <t>Vaccine bad for health,</t>
   </si>
   <si>
-    <t>Vaccination obligation,</t>
-  </si>
-  <si>
-    <t>Worry about infection,</t>
-  </si>
-  <si>
-    <t>Risk perception,</t>
-  </si>
-  <si>
-    <t>Public health vs economy,</t>
-  </si>
-  <si>
     <t>Propensity to vote for L,</t>
   </si>
   <si>
@@ -604,39 +520,15 @@
     <t>Propensity to vote for BOI,</t>
   </si>
   <si>
-    <t>Trust in science,</t>
-  </si>
-  <si>
-    <t>Trust in health syst,</t>
-  </si>
-  <si>
     <t>Religion, pray,</t>
   </si>
   <si>
-    <t>Sex,</t>
-  </si>
-  <si>
-    <t>Age,</t>
-  </si>
-  <si>
-    <t>Education,</t>
-  </si>
-  <si>
-    <t>Rural region,</t>
-  </si>
-  <si>
     <t>Economic insecurity,</t>
   </si>
   <si>
     <t>Vaccine hesitancy,</t>
   </si>
   <si>
-    <t>Compliance to preventive behaviors,</t>
-  </si>
-  <si>
-    <t>Approval of Government,</t>
-  </si>
-  <si>
     <t>Endorsing conspiracy theories,</t>
   </si>
   <si>
@@ -647,6 +539,81 @@
   </si>
   <si>
     <t>Digital media diet,</t>
+  </si>
+  <si>
+    <t>vac_free,</t>
+  </si>
+  <si>
+    <t>low_worry,</t>
+  </si>
+  <si>
+    <t>low_risk,</t>
+  </si>
+  <si>
+    <t>Low worry about infection,</t>
+  </si>
+  <si>
+    <t>Low risk perception,</t>
+  </si>
+  <si>
+    <t>int_locus,</t>
+  </si>
+  <si>
+    <t>Low sense of collective responsability,</t>
+  </si>
+  <si>
+    <t>low_col_resp,</t>
+  </si>
+  <si>
+    <t>distrust_sci,</t>
+  </si>
+  <si>
+    <t>Distrust of science,</t>
+  </si>
+  <si>
+    <t>low_comp,</t>
+  </si>
+  <si>
+    <t>Low compliance with preventive behaviors,</t>
+  </si>
+  <si>
+    <t>Disapproval of Government,</t>
+  </si>
+  <si>
+    <t>distrust_gov,</t>
+  </si>
+  <si>
+    <t>Distrust of institutions</t>
+  </si>
+  <si>
+    <t>distrust_inst</t>
+  </si>
+  <si>
+    <t>Against mandatory vaccination,</t>
+  </si>
+  <si>
+    <t>rural,</t>
+  </si>
+  <si>
+    <t>Living in a rural region,</t>
+  </si>
+  <si>
+    <t>young,</t>
+  </si>
+  <si>
+    <t>low_educ,</t>
+  </si>
+  <si>
+    <t>female,</t>
+  </si>
+  <si>
+    <t>Sex, female,</t>
+  </si>
+  <si>
+    <t>Age, young,</t>
+  </si>
+  <si>
+    <t>Educational level, low,</t>
   </si>
 </sst>
 </file>
@@ -689,7 +656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +723,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -769,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -786,6 +783,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,15 +1075,15 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,10 +1106,10 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1129,11 +1132,11 @@
         <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1157,10 +1160,10 @@
         <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A29" si="0">A3+1</f>
         <v>3</v>
@@ -1184,10 +1187,10 @@
         <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1211,10 +1214,10 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1238,31 +1241,31 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1284,7 +1287,7 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s">
         <v>71</v>
@@ -1302,16 +1305,16 @@
         <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="S8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="T8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>12</v>
@@ -1344,22 +1347,22 @@
         <v>35</v>
       </c>
       <c r="AE8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AF8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AG8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AH8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AI8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AJ8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AK8" t="s">
         <v>83</v>
@@ -1371,55 +1374,55 @@
         <v>91</v>
       </c>
       <c r="AN8" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AO8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1443,10 +1446,10 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1470,10 +1473,10 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1497,10 +1500,10 @@
         <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1524,10 +1527,10 @@
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1551,10 +1554,10 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1578,10 +1581,10 @@
         <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1605,10 +1608,10 @@
         <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1632,10 +1635,10 @@
         <v>65</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1659,10 +1662,10 @@
         <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1686,19 +1689,19 @@
         <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
@@ -1713,73 +1716,73 @@
         <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="e">
         <f>#REF!+1</f>
         <v>#REF!</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -1797,10 +1800,10 @@
         <v>72</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -1818,10 +1821,10 @@
         <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -1839,31 +1842,31 @@
         <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -1887,7 +1890,7 @@
         <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1899,20 +1902,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971D6BE-1FA4-4AD9-A75A-06A875610ECD}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,27 +1932,24 @@
         <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -1958,28 +1958,25 @@
         <v>53</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <f t="shared" ref="A3:A25" si="0">A2+1</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <f t="shared" ref="A3:A24" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1988,28 +1985,25 @@
         <v>53</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
@@ -2018,67 +2012,61 @@
         <v>101</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>114</v>
+      <c r="F5" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+        <v>136</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
         <v>80</v>
@@ -2086,87 +2074,80 @@
       <c r="E6" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>138</v>
+      <c r="F7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>138</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -2175,28 +2156,25 @@
         <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="H9" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -2205,28 +2183,25 @@
         <v>31</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
         <v>62</v>
@@ -2235,28 +2210,25 @@
         <v>31</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="H11" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
@@ -2265,28 +2237,25 @@
         <v>31</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <f t="shared" si="0"/>
+      <c r="H12" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <f>A12+1</f>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
         <v>56</v>
@@ -2295,364 +2264,298 @@
         <v>53</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <f>A13+1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="H14" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
+      <c r="F18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E20" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>108</v>
+      <c r="F21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
         <v>178</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>108</v>
+        <v>142</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="R22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="12" t="s">
-        <v>107</v>
+        <v>134</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Master vaccine.xlsx
+++ b/Input/Master vaccine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/art/Documents/Github/lavori in corso/papers/vaccine/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFACCF8-52DA-2F4D-AAC2-B48F82746259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5EFD46-9C89-3242-B02D-B4E6CD457BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28700" yWindow="500" windowWidth="10000" windowHeight="19980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12700" yWindow="520" windowWidth="23240" windowHeight="19980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original data" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,37 +719,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -783,12 +771,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1902,14 +1889,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5971D6BE-1FA4-4AD9-A75A-06A875610ECD}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" customWidth="1"/>
     <col min="14" max="14" width="13.5" customWidth="1"/>
@@ -1942,7 +1930,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1968,7 +1956,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <f t="shared" ref="A3:A24" si="0">A2+1</f>
         <v>2</v>
       </c>
@@ -1995,7 +1983,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2031,7 +2019,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2058,7 +2046,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2085,7 +2073,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2112,7 +2100,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2139,7 +2127,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2193,7 +2181,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2247,7 +2235,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <f>A12+1</f>
         <v>12</v>
       </c>
@@ -2274,7 +2262,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="17">
         <f>A13+1</f>
         <v>13</v>
       </c>
@@ -2301,7 +2289,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2328,7 +2316,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2353,7 +2341,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2378,7 +2366,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2403,7 +2391,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+      <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2430,7 +2418,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2460,7 +2448,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2487,7 +2475,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="14">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2515,7 +2503,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+      <c r="A23" s="19">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2537,7 +2525,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+      <c r="A24" s="19">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -2557,6 +2545,50 @@
       <c r="H24" s="12" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C30" s="16"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="16"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="16"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="16"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="16"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="16"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D49" s="16"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="F51" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/Master vaccine.xlsx
+++ b/Input/Master vaccine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/art/Documents/Github/lavori in corso/papers/vaccine/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5EFD46-9C89-3242-B02D-B4E6CD457BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C0724E-9A79-614C-AD79-162995C43AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12700" yWindow="520" windowWidth="23240" windowHeight="19980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38700" yWindow="500" windowWidth="33160" windowHeight="19980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original data" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,19 +725,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -772,10 +778,11 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1892,7 +1899,7 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1930,7 +1937,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1956,7 +1963,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="21">
         <f t="shared" ref="A3:A24" si="0">A2+1</f>
         <v>2</v>
       </c>
@@ -1983,7 +1990,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2019,7 +2026,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2073,7 +2080,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2100,7 +2107,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2154,7 +2161,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2181,7 +2188,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -2208,7 +2215,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -2235,7 +2242,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="21">
         <f>A12+1</f>
         <v>12</v>
       </c>
@@ -2262,7 +2269,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+      <c r="A14" s="18">
         <f>A13+1</f>
         <v>13</v>
       </c>
@@ -2276,7 +2283,7 @@
         <v>112</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>134</v>
@@ -2285,11 +2292,11 @@
         <v>139</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -2316,7 +2323,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -2341,7 +2348,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -2366,7 +2373,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -2391,7 +2398,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+      <c r="A19" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -2418,7 +2425,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+      <c r="A20" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -2448,7 +2455,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2475,7 +2482,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="A22" s="19">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -2503,7 +2510,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -2525,7 +2532,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
